--- a/‏‏rates.xlsx
+++ b/‏‏rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\PycharmProjects\delay_capital_gains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E20BD7-77F6-4B74-B785-7F49923DE9A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF107C77-9AEB-4869-9243-DD16EF954C15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,12 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,16 +507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1591,6 +1594,30 @@
         <v>34006993.722999901</v>
       </c>
     </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>201904</v>
+      </c>
+      <c r="B125">
+        <v>34176689.299999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>201905</v>
+      </c>
+      <c r="B126">
+        <v>34278506.600000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>201906</v>
+      </c>
+      <c r="B127">
+        <v>34516080.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
